--- a/weather_analysis/ouptut.xlsx
+++ b/weather_analysis/ouptut.xlsx
@@ -14,11 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="88">
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
   <si>
     <t>Overall</t>
   </si>
   <si>
+    <t>雨天</t>
+  </si>
+  <si>
+    <t>沒雨</t>
+  </si>
+  <si>
+    <t>飄雨</t>
+  </si>
+  <si>
     <t>陰天 雨天 16.2 C</t>
   </si>
   <si>
@@ -28,7 +43,7 @@
     <t>陰天 雨天 18.4 C</t>
   </si>
   <si>
-    <t>艷陽  22.0 C</t>
+    <t>艷陽 沒雨 22.0 C</t>
   </si>
   <si>
     <t>陰天 飄雨 19.9 C</t>
@@ -37,31 +52,31 @@
     <t>陰天 雨天 18.0 C</t>
   </si>
   <si>
-    <t>晴天  20.6 C</t>
+    <t>晴天 沒雨 20.6 C</t>
   </si>
   <si>
     <t>陰天 飄雨 20.0 C</t>
   </si>
   <si>
-    <t>晴天  18.7 C</t>
-  </si>
-  <si>
-    <t>艷陽  22.7 C</t>
-  </si>
-  <si>
-    <t>艷陽  22.1 C</t>
-  </si>
-  <si>
-    <t>陰天  19.6 C</t>
-  </si>
-  <si>
-    <t>陰天  18.6 C</t>
-  </si>
-  <si>
-    <t>艷陽  19.7 C</t>
-  </si>
-  <si>
-    <t>陰天  21.0 C</t>
+    <t>晴天 沒雨 18.7 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 22.7 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 22.1 C</t>
+  </si>
+  <si>
+    <t>陰天 沒雨 19.6 C</t>
+  </si>
+  <si>
+    <t>陰天 沒雨 18.6 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 19.7 C</t>
+  </si>
+  <si>
+    <t>陰天 沒雨 21.0 C</t>
   </si>
   <si>
     <t>陰天 雨天 16.6 C</t>
@@ -70,10 +85,10 @@
     <t>陰天 飄雨 15.7 C</t>
   </si>
   <si>
-    <t>艷陽  18.2 C</t>
-  </si>
-  <si>
-    <t>艷陽  19.1 C</t>
+    <t>艷陽 沒雨 18.2 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 19.1 C</t>
   </si>
   <si>
     <t>陰天 飄雨 18.4 C</t>
@@ -85,40 +100,40 @@
     <t>陰天 飄雨 14.5 C</t>
   </si>
   <si>
-    <t>晴天  16.2 C</t>
-  </si>
-  <si>
-    <t>艷陽  17.8 C</t>
-  </si>
-  <si>
-    <t>艷陽  18.9 C</t>
-  </si>
-  <si>
-    <t>陰天  15.4 C</t>
-  </si>
-  <si>
-    <t>晴天  15.5 C</t>
-  </si>
-  <si>
-    <t>艷陽  17.9 C</t>
-  </si>
-  <si>
-    <t>艷陽  20.0 C</t>
-  </si>
-  <si>
-    <t>艷陽  20.9 C</t>
-  </si>
-  <si>
-    <t>艷陽  19.9 C</t>
+    <t>晴天 沒雨 16.2 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 17.8 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 18.9 C</t>
+  </si>
+  <si>
+    <t>陰天 沒雨 15.4 C</t>
+  </si>
+  <si>
+    <t>晴天 沒雨 15.5 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 17.9 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 20.0 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 20.9 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 19.9 C</t>
   </si>
   <si>
     <t>陰天 飄雨 15.0 C</t>
   </si>
   <si>
-    <t>艷陽  20.1 C</t>
-  </si>
-  <si>
-    <t>艷陽  21.8 C</t>
+    <t>艷陽 沒雨 20.1 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 21.8 C</t>
   </si>
   <si>
     <t>陰天 飄雨 18.2 C</t>
@@ -127,34 +142,34 @@
     <t>陰天 飄雨 18.5 C</t>
   </si>
   <si>
-    <t>艷陽  20.8 C</t>
-  </si>
-  <si>
-    <t>陰天  16.9 C</t>
+    <t>艷陽 沒雨 20.8 C</t>
+  </si>
+  <si>
+    <t>陰天 沒雨 16.9 C</t>
   </si>
   <si>
     <t>陰天 飄雨 16.4 C</t>
   </si>
   <si>
-    <t>陰天  16.8 C</t>
-  </si>
-  <si>
-    <t>陰天  16.7 C</t>
-  </si>
-  <si>
-    <t>艷陽  20.7 C</t>
+    <t>陰天 沒雨 16.8 C</t>
+  </si>
+  <si>
+    <t>陰天 沒雨 16.7 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 20.7 C</t>
   </si>
   <si>
     <t>陰天 飄雨 18.9 C</t>
   </si>
   <si>
-    <t>陰天  19.1 C</t>
-  </si>
-  <si>
-    <t>艷陽  21.3 C</t>
-  </si>
-  <si>
-    <t>陰天  18.0 C</t>
+    <t>陰天 沒雨 19.1 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 21.3 C</t>
+  </si>
+  <si>
+    <t>陰天 沒雨 18.0 C</t>
   </si>
   <si>
     <t>陰天 飄雨 20.3 C</t>
@@ -163,7 +178,7 @@
     <t>晴天 飄雨 20.7 C</t>
   </si>
   <si>
-    <t>艷陽  23.0 C</t>
+    <t>艷陽 沒雨 23.0 C</t>
   </si>
   <si>
     <t>晴天 飄雨 21.4 C</t>
@@ -178,22 +193,64 @@
     <t>陰天 飄雨 17.3 C</t>
   </si>
   <si>
-    <t>艷陽  18.1 C</t>
+    <t>艷陽 沒雨 18.1 C</t>
   </si>
   <si>
     <t>晴天 飄雨 20.8 C</t>
   </si>
   <si>
-    <t>陰天  18.8 C</t>
-  </si>
-  <si>
-    <t>晴天  19.5 C</t>
-  </si>
-  <si>
-    <t>艷陽  21.9 C</t>
-  </si>
-  <si>
-    <t>艷陽  18.4 C</t>
+    <t>陰天 沒雨 18.8 C</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>20.6</t>
+  </si>
+  <si>
+    <t>20.9</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>晴天 沒雨 19.5 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 21.9 C</t>
+  </si>
+  <si>
+    <t>艷陽 沒雨 18.4 C</t>
   </si>
   <si>
     <t>晴天 飄雨 19.9 C</t>
@@ -214,10 +271,10 @@
     <t>陰天 飄雨 16.9 C</t>
   </si>
   <si>
-    <t>艷陽  20.6 C</t>
-  </si>
-  <si>
-    <t>晴天  21.1 C</t>
+    <t>艷陽 沒雨 20.6 C</t>
+  </si>
+  <si>
+    <t>晴天 沒雨 21.1 C</t>
   </si>
   <si>
     <t xml:space="preserve">  ... C</t>
@@ -578,446 +635,953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>16.2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>20.1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>18.4</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>21.8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>18.2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6">
+        <v>19.9</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>18.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7">
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>20.8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8">
+        <v>20.6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>22.1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="B9">
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>16.9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="B10">
+        <v>18.7</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>16.4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="B11">
+        <v>22.7</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>16.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="B12">
+        <v>22.1</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>16.7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
+      <c r="B13">
+        <v>19.6</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>20.7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
+      <c r="B14">
+        <v>18.6</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>18.9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
+      <c r="B15">
+        <v>19.7</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>19.1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
+      <c r="B16">
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>21.3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
+      <c r="B17">
+        <v>16.6</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
+      <c r="B18">
+        <v>15.7</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>16.8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
+      <c r="B19">
+        <v>18.2</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>20.3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
+      <c r="B20">
+        <v>19.1</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>20.7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
+      <c r="B21">
+        <v>18.4</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
+      <c r="B22">
+        <v>15.2</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>21.4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
+      <c r="B23">
+        <v>14.5</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>17.8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
+      <c r="B24">
+        <v>16.2</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>14.5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>24</v>
+      <c r="B25">
+        <v>17.8</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>15.4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>25</v>
+      <c r="B26">
+        <v>18.9</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>17.3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>26</v>
+      <c r="B27">
+        <v>15.4</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>18.1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>27</v>
+      <c r="B28">
+        <v>15.5</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>20.8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>28</v>
+      <c r="B29">
+        <v>17.9</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>18.8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>29</v>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>30</v>
+      <c r="B31">
+        <v>20.9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>31</v>
+      <c r="B32">
+        <v>19.9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
